--- a/Drugs.xlsx
+++ b/Drugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian.schendt\Downloads\Chargemaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0D2364-F02F-4318-B121-1B2CE5545E5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F434C6-53B9-4F24-8BD1-73991D8DDF19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{F88B3B1F-BE1A-43F7-A57F-47AEA431D402}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="101">
   <si>
     <t>retailmenot</t>
   </si>
@@ -327,6 +327,12 @@
   </si>
   <si>
     <t>Drug Name</t>
+  </si>
+  <si>
+    <t>Abatacept</t>
+  </si>
+  <si>
+    <t>Elotuzumab</t>
   </si>
 </sst>
 </file>
@@ -678,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC656808-4626-4865-9BD2-17133AED98A0}">
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:A103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1194,6 +1200,16 @@
         <v>97</v>
       </c>
     </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
